--- a/job.xlsx
+++ b/job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.9萬獎勵金！第五屆T大使募集：其他領域人才(台北_主題學院_財團法人中華經濟研究院會)</t>
+          <t>高級前端工程師**月薪60,000~80,000**</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>【企業專案招募】104未來無限整合招募中心</t>
+          <t>小熊科技有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>學歷不拘</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(年度擴編)Full Stack / 全端工程師</t>
+          <t>高級後端工程師**月薪60,000~80,000**</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英屬維京群島商瑞嘉耐思科技有限公司台灣分公司</t>
+          <t>小熊科技有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AI智慧製造工程師培訓計畫(台北)</t>
+          <t>Javascript前端工程師</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>丸悅有限公司</t>
+          <t>歐司開人工智慧股份有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>高中</t>
+          <t>學歷不拘</t>
         </is>
       </c>
     </row>
@@ -556,22 +556,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>APP 軟體工程師 - iOS(可視訊面談)</t>
+          <t>金融專案 軟體測試 Software QA (信義區)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>合邦商網股份有限公司</t>
+          <t>華威數位財金科技股份有限公司</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>徵 資訊處-系統發展組-資訊人員1名</t>
+          <t>【總公司職缺】日商OWNDAYS眼鏡 誠徵 PHP / Laravel 後端工程師</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>臺北醫學大學</t>
+          <t>OWNDAYS_恩戴適股份有限公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>新北市中和區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>軟體工程師</t>
+          <t>(IBM Consulting)Project Manager-Core Banking &amp; Payments</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天晴資訊有限公司</t>
+          <t>IBM_台灣國際商業機器股份有限公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>5年以上</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>人工智慧(AI)軟體工程師</t>
+          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永豐商業銀行股份有限公司</t>
+          <t>立亨網絡服務有限公司</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>【新聞部數據中心】前端開發工程師</t>
+          <t>實習職缺-(programming)研發資訊系統開發</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>聯合報股份有限公司</t>
+          <t>微星科技股份有限公司</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>新北市汐止區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -706,22 +706,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>後端工程師 (Back-End Engineer)</t>
+          <t>Software Engineer (全遠距工作)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EZTABLE_三二三網路科技股份有限公司</t>
+          <t>印度商威普羅股份有限公司台灣分公司</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台北市南港區</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3年以上</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>軟體專案助理</t>
+          <t>【UberEats_Merchant Data Analyst】數據分析RFS_881</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>繹宇數位科技股份有限公司</t>
+          <t>藝珂人事顧問股份有限公司</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>資訊處-前端工程師</t>
+          <t>iCHEF 客服人員</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>永豐商業銀行股份有限公司</t>
+          <t>iCHEF_資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
     </row>
@@ -796,22 +796,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Java 研發工程師(財務系統)</t>
+          <t>【總公司職缺】日商OWNDAYS眼鏡 誠徵 Vue.js 前端工程師</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>可因科技有限公司</t>
+          <t>OWNDAYS_恩戴適股份有限公司</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5年以上</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>一般DBA 資料庫管理師</t>
+          <t>資訊暨圖書中心資訊組資安專章計畫人員</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>崴拓資訊有限公司</t>
+          <t>耕莘健康管理專科學校</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>新北市新店區</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Backend Engineer / 後端工程師 -PHP Laravel</t>
+          <t>10.9萬獎勵金！第五屆T大使募集：生成式AI人才(北部_和碩聯合科技、新光金融控股、凌群電腦)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>魚禾子科技有限公司</t>
+          <t>【企業專案招募】104未來無限整合招募中心</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>台北市大同區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>資訊部門主管</t>
+          <t>資訊專員</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>英屬維京群島商安泰集團有限公司台灣分公司</t>
+          <t>iCHEF_資廚管理顧問股份有限公司</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>台北市松山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
     </row>
@@ -916,22 +916,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>數據應用部-機器學習模型應用人員</t>
+          <t>(IBM Consulting)Business Transformation Consultant - Banking</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>永豐商業銀行股份有限公司</t>
+          <t>IBM_台灣國際商業機器股份有限公司</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市信義區</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>5年以上</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>【2024實習 Dare to Delta】AI工程師_資訊處(內湖)</t>
+          <t>高級前端工程師**月薪60,000~80,000**</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台達電子工業股份有限公司 _DELTA ELECTRONICS INC.</t>
+          <t>小熊科技有限公司</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>2年以上</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>學歷不拘</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C# .NET程式設計師</t>
+          <t>REQ_23053904 H1R200 AIoT軟體研發工程師(台北/新竹)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天晴資訊有限公司</t>
+          <t>啟碁科技股份有限公司</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>台北市南港區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1年以上</t>
+          <t>經歷不拘</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>軟韌體工程師</t>
+          <t>專案助理 / Project Assistant</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>香港商睿克科技有限公司台灣分公司</t>
+          <t>資康科技有限公司</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>台北市中正區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>碩士</t>
+          <t>大學</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pubu 電子書 C# .NET軟體工程師</t>
+          <t>軟體測試工程師</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>湛天創新科技股份有限公司</t>
+          <t>台灣永盛科訊科技有限公司</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>經歷不拘</t>
+          <t>1年以上</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Game Designer（遊戲企劃）</t>
+          <t>Solidity 區塊鏈工程師 (年薪100萬~200萬)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>紅檜科技股份有限公司</t>
+          <t>極星創意有限公司</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5年以上</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>高中</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,1347 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>【Intern Program】後端實習生 Backend Intern</t>
+          <t>資訊暨圖書中心資訊組約聘技佐</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>英屬開曼群島商萬里雲互聯股份有限公司台灣分公司</t>
+          <t>耕莘健康管理專科學校</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>【日商花王】Sales Planning</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>日商 花王(台灣)股份有限公司</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>※ 實習生強力募集 ※ 精誠集團2024實習生招募(C#/.NET/Java/資料庫)，現在投遞，馬上面試！</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>精誠資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>資訊助理(台北)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>坤眾科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ERP資深專員(專案經理)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘如企業有限公司</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>新北市樹林區</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>行銷數據分析_4059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>技嘉科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>遊戲測試專員</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>吉恩立數位科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>台北市信義區</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[外商軟體公司] Spares Supply Chain Analyst&lt;派遣職&gt;105IW</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>萬寶華企業管理顧問股份有限公司</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>新北市板橋區</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>資訊業務助理</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>倫發科技有限公司</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Risk Management Agent 風控專員（遊戲企劃）</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>雲策數據有限公司</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>【薪優】數位轉型管理師(總公司)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中華工程股份有限公司</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>研發工程師 R&amp;D Engineer - Backend, Software, IoT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>巴涼科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>台北市南港區</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>高中</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>後端工程師</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>雲深創新股份有限公司</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>高中</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>資訊助理</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>阜爾集團(股票代碼6914)_阜爾運通股份有限公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>新北市中和區</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BMC Technical Project Manager_Taipei (Hybrid)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hyve solutions_海峰電腦股份有限公司</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>系開_系統架構師 System Architect</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>遠雄人壽保險事業股份有限公司(總公司)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>【AIGC】開放性職缺Welcome self-recommendation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>數碼虛擬人科技有限公司</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[120-240k] 系統工程師(中/高級)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>騰睿達科技有限公司</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>資訊部 - Web前端工程師</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永達保險經紀人股份有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>軟體測試工程師_12840</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>和碩集團_和碩聯合科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>台北市北投區</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>系統開發工程師(資訊處)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永豐金證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>新北市板橋區</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Linux工程師</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>偉林電子股份有限公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>台北市南港區</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>生成式 AI 研發工程師/ LLM 相關開發應用</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>帝璽智慧科技有限公司</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>台北市大安區</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Business Solution Architect (BSA)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>日商三菱日聯銀行股份有限公司台北分公司</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10.9萬獎勵金！第五屆T大使募集：生成式AI人才(北部_和碩聯合科技、新光金融控股、凌群電腦)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>【企業專案招募】104未來無限整合招募中心</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>軟體工程師(Programmer)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>聯款通股份有限公司</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(資深)Java 系統設計師 (Sr.)System Designer_台北</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>昕力資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Java Web工程師</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>尚程資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>高中</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>軟體商業分析師 BA / Business Analyst</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>希格斯資訊科技有限公司</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>資本_全端軟體開發 資訊助理/實習(一年期)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行股份有限公司</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>台北市南港區</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>資訊行政專員</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>健談股份有限公司</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>新北市新莊區</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>網路/資安培訓工程師</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博鉅資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>新北市汐止區</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>O2O 專案助理</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>睿鼎數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>台北市大安區</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>派駐Google | 影像品質軟體工程師 IQA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HCL Technologies Taiwan_台灣愛渠西來技術股份有限公司</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>新北市板橋區</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KD_科定企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>新北市三重區</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>初階維運工程師</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宏韃資訊顧問有限公司</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>高中</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>資訊助理</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>百達醫療產品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>台北市松山區</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>軟體部門主管/Software Director</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>美商沃彌股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8年以上</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>微風集團_資訊長期早晚班工讀生(時薪200，歡迎實習生或是日/夜間部學生加入)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>微風廣場實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>React 前端工程師</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>尚程資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>相機影像工程師Camera Image Engineer_02213</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>緯創資通股份有限公司</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>新北市汐止區</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(2024 Campus Hire) Associate Application Consultant</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>IBM_台灣國際商業機器股份有限公司</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sr. Technical Director</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>雲端互動股份有限公司</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>【台北公司】SAP 模組工程師</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>長春人造樹脂廠股份有限公司</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>前端工程師</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>訊動科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>新北市新店區</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>大學</t>
         </is>
       </c>
     </row>
